--- a/Design/functions_design.xlsx
+++ b/Design/functions_design.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ren/Documents/EC-site/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ren/Desktop/work/vagrant/ec-site/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87E5F08B-1E6E-6B4E-A3A1-5CB240C2F336}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1420DB-C8A2-AA4F-BAA5-2E3476619E2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -109,13 +108,6 @@
     <t>ユーザーのカート情報表示</t>
     <rPh sb="0" eb="4">
       <t>ユーザー</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザーのがカートに追加した表品を表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカシタヒョウヒンヲ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -280,6 +272,13 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>ユーザーのカートに追加した商品を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカシタヒョウヒンヲ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -436,6 +435,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,9 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:Y959"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="118" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -794,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -818,7 +817,7 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3">
@@ -855,7 +854,7 @@
       <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -890,7 +889,7 @@
       <c r="Y3" s="2"/>
     </row>
     <row r="4" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -925,7 +924,7 @@
       <c r="Y4" s="2"/>
     </row>
     <row r="5" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -960,7 +959,7 @@
       <c r="Y5" s="2"/>
     </row>
     <row r="6" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -968,7 +967,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>12</v>
@@ -995,7 +994,7 @@
       <c r="Y6" s="2"/>
     </row>
     <row r="7" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3">
         <v>6</v>
       </c>
@@ -1030,7 +1029,7 @@
       <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3">
         <v>7</v>
       </c>
@@ -1065,7 +1064,7 @@
       <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3">
         <v>8</v>
       </c>
@@ -1073,7 +1072,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>12</v>
@@ -1100,15 +1099,15 @@
       <c r="Y9" s="2"/>
     </row>
     <row r="10" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -1135,15 +1134,15 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>12</v>
@@ -1170,15 +1169,15 @@
       <c r="Y11" s="2"/>
     </row>
     <row r="12" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -1205,15 +1204,15 @@
       <c r="Y12" s="2"/>
     </row>
     <row r="13" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3">
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -1240,15 +1239,15 @@
       <c r="Y13" s="2"/>
     </row>
     <row r="14" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3">
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>12</v>
@@ -1275,17 +1274,17 @@
       <c r="Y14" s="2"/>
     </row>
     <row r="15" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
@@ -1312,13 +1311,15 @@
       <c r="Y15" s="2"/>
     </row>
     <row r="16" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>12</v>
@@ -1345,13 +1346,15 @@
       <c r="Y16" s="2"/>
     </row>
     <row r="17" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>12</v>
@@ -1378,13 +1381,15 @@
       <c r="Y17" s="2"/>
     </row>
     <row r="18" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>12</v>
@@ -1411,13 +1416,15 @@
       <c r="Y18" s="2"/>
     </row>
     <row r="19" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="3">
+        <v>5</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>44</v>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>12</v>
@@ -1444,15 +1451,15 @@
       <c r="Y19" s="2"/>
     </row>
     <row r="20" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>12</v>
@@ -1479,15 +1486,15 @@
       <c r="Y20" s="2"/>
     </row>
     <row r="21" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>12</v>
